--- a/data/trans_dic/P31_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P31_2_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,21 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza una actividad física ligera &lt;= 2 días a la semana respecto a las últimas 2 semanas</t>
+          <t>Población que realiza una actividad física ligera &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,05%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +552,29 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -618,6 +682,15 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>81,49%</t>
+          <t>81,47%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>86,93%</t>
+          <t>86,27%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>88,0%</t>
+          <t>86,8%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>85,95%</t>
+          <t>71,01%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>89,79%</t>
+          <t>82,5%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>88,52%</t>
+          <t>87,54%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>83,65%</t>
+          <t>85,38%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>88,34%</t>
+          <t>89,42%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>88,26%</t>
+          <t>88,56%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>85,6%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>84,49%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>81,98%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>83,36%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>87,83%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>87,69%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>78,65%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>83,43%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>84,91%</t>
         </is>
       </c>
     </row>
@@ -685,47 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>73,89; 87,8</t>
+          <t>74,03; 87,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,54; 91,8</t>
+          <t>79,58; 91,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>80,83; 92,71</t>
+          <t>79,07; 92,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>79,14; 90,92</t>
+          <t>60,87; 80,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>83,85; 94,02</t>
+          <t>72,11; 88,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>82,86; 93,02</t>
+          <t>78,79; 93,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>78,66; 87,64</t>
+          <t>77,85; 90,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>84,71; 91,86</t>
+          <t>83,95; 93,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>84,15; 91,64</t>
+          <t>82,87; 93,12</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>78,25; 90,5</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>76,15; 90,27</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>74,89; 87,39</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>78,45; 87,3</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>83,51; 91,33</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>83,33; 91,03</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>72,95; 83,95</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>76,71; 87,84</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>79,33; 89,13</t>
         </is>
       </c>
     </row>
@@ -742,47 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>89,97%</t>
+          <t>90,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>85,75%</t>
+          <t>85,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88,0%</t>
+          <t>88,4%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>84,99%</t>
+          <t>82,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>85,67%</t>
+          <t>89,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>90,53%</t>
+          <t>86,66%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>87,6%</t>
+          <t>84,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>85,71%</t>
+          <t>85,13%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>89,19%</t>
+          <t>90,72%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>80,82%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>84,57%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>86,16%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>87,36%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>85,43%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>89,49%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>81,7%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>87,19%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>86,41%</t>
         </is>
       </c>
     </row>
@@ -795,47 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,72; 93,99</t>
+          <t>85,04; 94,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>80,06; 90,33</t>
+          <t>79,52; 90,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>81,91; 92,39</t>
+          <t>82,48; 92,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>79,23; 89,27</t>
+          <t>74,37; 88,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>80,34; 90,04</t>
+          <t>82,16; 94,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>86,43; 93,97</t>
+          <t>78,94; 92,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>83,62; 90,72</t>
+          <t>78,29; 89,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>82,13; 88,84</t>
+          <t>79,86; 89,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>85,56; 91,91</t>
+          <t>86,61; 93,89</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>74,21; 86,59</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>77,73; 89,96</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>79,4; 90,67</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>83,73; 90,45</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>81,41; 88,68</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>85,89; 92,2</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>77,18; 86,78</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>82,88; 91,01</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>81,96; 90,13</t>
         </is>
       </c>
     </row>
@@ -852,47 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>92,2%</t>
+          <t>91,81%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>90,03%</t>
+          <t>89,92%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>90,65%</t>
+          <t>90,27%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>84,86%</t>
+          <t>84,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>89,46%</t>
+          <t>89,75%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>82,61%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>84,84%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>89,9%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>93,3%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>88,5%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>89,74%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>92,0%</t>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>89,53%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>89,96%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>87,8%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>88,24%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>89,91%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>91,82%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>86,83%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>89,85%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>85,06%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>88,13; 95,33</t>
+          <t>87,53; 94,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>85,91; 93,04</t>
+          <t>85,97; 93,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>84,47; 94,68</t>
+          <t>82,97; 94,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>80,05; 88,57</t>
+          <t>73,8; 89,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>85,8; 92,65</t>
+          <t>85,37; 93,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>90,53; 95,63</t>
+          <t>76,33; 87,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>85,35; 91,12</t>
+          <t>80,55; 88,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>87,12; 91,95</t>
+          <t>86,35; 92,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>88,7; 94,24</t>
+          <t>90,52; 95,71</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>85,56; 92,5</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>85,74; 93,38</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>82,51; 92,02</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>85,32; 90,92</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>87,49; 92,06</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>88,05; 94,1</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>81,37; 89,6</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>86,66; 92,3</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>80,87; 88,38</t>
         </is>
       </c>
     </row>
@@ -962,47 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>89,0%</t>
+          <t>88,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>89,27%</t>
+          <t>90,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>92,21%</t>
+          <t>92,29%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>84,03%</t>
+          <t>80,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>89,49%</t>
+          <t>90,4%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>90,97%</t>
+          <t>88,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>86,44%</t>
+          <t>84,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>89,38%</t>
+          <t>89,57%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>91,58%</t>
+          <t>91,14%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>88,2%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>88,55%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>92,6%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>86,56%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>89,84%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>91,71%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>84,6%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>89,52%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>90,44%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>84,98; 92,15</t>
+          <t>84,54; 92,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,85; 92,46</t>
+          <t>86,71; 93,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>88,75; 94,8</t>
+          <t>88,87; 94,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>79,2; 87,96</t>
+          <t>75,54; 85,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>85,59; 92,54</t>
+          <t>84,17; 94,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,23; 93,69</t>
+          <t>84,04; 92,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>83,36; 89,03</t>
+          <t>80,06; 88,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>86,78; 91,74</t>
+          <t>85,93; 92,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>89,13; 93,75</t>
+          <t>87,83; 93,64</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>84,67; 91,55</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>83,94; 92,21</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>89,24; 95,61</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>83,5; 89,15</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>87,2; 91,79</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>89,36; 93,57</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>81,07; 87,55</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>85,78; 92,46</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>87,43; 92,91</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>86,98%</t>
+          <t>86,89%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>91,95%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>92,79%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>89,22%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>92,86%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>91,17%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>91,25%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>88,45%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>90,76%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>87,57%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>94,29%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>95,01%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>89,13%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>90,23%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
           <t>91,75%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>92,93%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>91,14%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>88,56%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>90,86%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>89,12%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>90,17%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>91,88%</t>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>88,37%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>93,61%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>93,12%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>82,34; 90,99</t>
+          <t>81,99; 91,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>88,14; 94,66</t>
+          <t>87,85; 94,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>85,68; 95,95</t>
+          <t>86,06; 96,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>86,54; 94,66</t>
+          <t>83,71; 93,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>83,19; 92,5</t>
+          <t>87,57; 96,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>86,9; 93,76</t>
+          <t>86,4; 94,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>85,92; 91,79</t>
+          <t>86,59; 94,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>86,74; 92,75</t>
+          <t>82,32; 92,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>88,59; 94,35</t>
+          <t>86,55; 93,69</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>82,36; 91,6</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>90,13; 96,72</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>91,54; 97,57</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>86,05; 91,99</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>86,78; 92,7</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>88,18; 94,04</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>84,65; 91,53</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>90,77; 96,01</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>90,15; 95,54</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>87,12%</t>
+          <t>85,65%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>85,97%</t>
+          <t>86,15%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>87,8%</t>
+          <t>87,94%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>89,63%</t>
+          <t>81,51%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>91,47%</t>
+          <t>89,79%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>88,86%</t>
+          <t>86,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>88,54%</t>
+          <t>89,32%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>89,09%</t>
+          <t>91,38%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>88,4%</t>
+          <t>88,65%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>85,08%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>90,97%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>90,5%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>87,73%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>89,11%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>88,34%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>83,51%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>90,47%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>89,01%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>81,84; 91,04</t>
+          <t>79,53; 90,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>79,86; 90,29</t>
+          <t>81,21; 91,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>79,83; 92,38</t>
+          <t>80,55; 92,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>85,04; 93,06</t>
+          <t>74,73; 87,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>87,26; 94,5</t>
+          <t>83,73; 94,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>84,53; 92,51</t>
+          <t>79,16; 91,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>84,88; 91,38</t>
+          <t>84,39; 92,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>86,12; 91,75</t>
+          <t>86,74; 94,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>84,11; 91,12</t>
+          <t>84,27; 92,26</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>77,81; 90,04</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>82,3; 95,48</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>83,22; 94,66</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>84,28; 90,72</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>85,79; 91,56</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>84,78; 91,29</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>78,65; 87,83</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>85,37; 93,73</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>83,91; 92,42</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>88,13%</t>
+          <t>87,75%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>88,35%</t>
+          <t>88,43%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>89,98%</t>
+          <t>89,81%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>86,71%</t>
+          <t>81,82%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>89,22%</t>
+          <t>89,32%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
+          <t>87,0%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>86,58%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>89,17%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>90,6%</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>87,4%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>88,79%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>90,3%</t>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>86,4%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>89,11%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>89,34%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>87,15%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>88,81%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>90,21%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>84,16%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>89,21%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>88,18%</t>
         </is>
       </c>
     </row>
@@ -1345,63 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>85,97; 89,73</t>
+          <t>85,76; 89,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>86,44; 90,11</t>
+          <t>86,3; 90,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>87,62; 91,81</t>
+          <t>87,6; 91,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>84,76; 88,41</t>
+          <t>78,97; 84,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>87,59; 90,69</t>
+          <t>86,9; 91,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>89,27; 92,25</t>
+          <t>84,53; 89,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>86,14; 88,76</t>
+          <t>84,61; 88,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>87,56; 89,95</t>
+          <t>87,43; 90,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>89,04; 91,53</t>
+          <t>89,15; 92,02</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>84,26; 88,34</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>86,86; 90,85</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>87,22; 91,33</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>85,81; 88,3</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>87,59; 89,91</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>88,68; 91,31</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>82,26; 85,79</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>87,63; 90,68</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>86,58; 89,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que realiza una actividad física ligera &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,05%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>406148</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>446812</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>442806</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>296561</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>34711</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>36110</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>400248</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>453183</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>453479</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>393451</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>31596</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>30298</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>806396</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>899995</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>896285</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>690012</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>66308</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>66408</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>369092; 437331</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>412119; 474793</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>403368; 472488</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>254237; 335269</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>30341; 37386</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>32502; 38563</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>364963; 422538</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>425475; 473281</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>424308; 476790</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>359679; 415970</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>28479; 33760</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>27677; 32295</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>758912; 844522</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>855727; 935819</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>851759; 930474</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>639958; 736505</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>60968; 69811</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>62040; 69703</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>350.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>371.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>513779</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>479896</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>521683</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>468697</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>44361</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>38823</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>431263</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>428256</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>469363</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>371988</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>39921</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>38397</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>945042</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>908152</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>991045</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>840686</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>84283</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>77220</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>484992; 537667</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>445349; 506321</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>486750; 544600</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>422978; 506036</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>40633; 46839</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>35368; 41312</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>400395; 455549</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>401731; 450139</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>448085; 485753</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>341583; 398555</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>36693; 42464</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>35383; 40408</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>905702; 978399</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>865476; 942762</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>951272; 1021152</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>794207; 893014</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>80116; 87967</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>73247; 80546</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>256.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>321.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>350.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>271.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>432.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>564.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>606.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>445.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>404.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>330.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>620122</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>607796</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>613907</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>548607</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>53809</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>49152</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>599743</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>633667</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>658389</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>610892</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>48501</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>46711</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1219864</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1241463</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>1272296</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1159499</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>102310</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>95863</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>591185; 639814</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>581092; 628630</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>564267; 643295</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>482003; 584158</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>51179; 55989</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>45420; 51977</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>569459; 627083</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>608686; 652690</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>638760; 675409</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>583747; 631099</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>46229; 50347</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>43894; 48956</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1179436; 1256881</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1208044; 1271166</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1220147; 1304021</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1086585; 1196453</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>98681; 105103</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>91141; 99606</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>269.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>285.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>319.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>344.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>479.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>588.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>629.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>453.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>371.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>384.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>570064</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>575193</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>589790</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>500435</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>52397</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>48573</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>568300</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>598194</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>598792</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>557267</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>46240</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>47733</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1138364</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1173388</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1188582</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1057701</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>98636</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>96305</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>543434; 591871</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>553432; 593909</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>567944; 605695</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>467169; 528883</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>48788; 54635</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>46162; 50640</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>538200; 595148</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>573882; 617832</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>577048; 615187</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>534946; 578420</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>43834; 48153</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>46001; 49283</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1098064; 1172468</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1138970; 1198944</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1158104; 1212764</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1013530; 1094607</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>94514; 101875</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>93098; 98934</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>374.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>455.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>480.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>335.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>357.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>348.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>417902</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>453683</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>453594</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>420199</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>41312</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>39746</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>462720</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>423538</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>465363</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>436365</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>45988</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>42880</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>880622</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>877221</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>918957</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>856564</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>87301</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>82625</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>394340; 437925</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>433447; 467520</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>420705; 469810</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>394232; 439785</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>38958; 42896</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>37664; 41341</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>439067; 478833</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>394184; 440987</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>443798; 480397</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>410420; 456467</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>43958; 47173</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>41314; 44034</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>850206; 908871</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>843749; 901244</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>883192; 941887</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>820503; 887168</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>84656; 89540</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>79985; 84766</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>338.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>386.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>384.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>229.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>466954</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>444208</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>468167</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>448425</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>41572</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>36815</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>637650</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>614595</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>614041</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>594743</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>57967</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>55271</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1104604</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>1058803</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>1082208</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>1043168</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>99539</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>92086</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>433603; 490974</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>418748; 469694</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>428821; 492788</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>411140; 481235</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>38766; 43583</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>33548; 38837</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>602496; 663015</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>583422; 636466</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>583697; 639055</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>543953; 629458</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>52444; 60844</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>50827; 57814</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>1061213; 1142334</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>1019391; 1087927</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>1038578; 1118297</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>982507; 1097248</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>93927; 103122</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>86808; 95616</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>989.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1179.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1214.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>817.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>821.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>764.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1153.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1440.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1508.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1049.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>978.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>964.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>2142.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>2619.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>2722.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>1866.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>1799.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>1728.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2994968</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>3007588</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>3089948</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2682923</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>268160</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>249219</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>3099923</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>3151435</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>3259425</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>2964707</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>270215</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>261289</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>6094890</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>6159022</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>6349374</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>5647630</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>538375</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>510508</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2927079; 3056716</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2935160; 3067055</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>3014114; 3150161</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2589579; 2775085</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>260897; 274171</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>242138; 255511</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>3029277; 3162244</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>3089856; 3206078</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>3206979; 3310405</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>2891368; 3031138</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>263383; 275477</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>255098; 267117</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>6001613; 6175478</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>6074559; 6235178</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>6241682; 6426308</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>5520081; 5756561</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>528803; 547194</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>501214; 518902</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
